--- a/Search_Algorithms_Project/lib/ParallelResults.xlsx
+++ b/Search_Algorithms_Project/lib/ParallelResults.xlsx
@@ -111,16 +111,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.194548E7</v>
+        <v>1.3985656E7</v>
       </c>
       <c r="F2" t="n">
         <v>948.0</v>
@@ -131,16 +131,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.2006008E7</v>
+        <v>1.3978024E7</v>
       </c>
       <c r="F3" t="n">
         <v>948.0</v>
